--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gin/sdev/github/timeSheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -27,18 +37,15 @@
   <si>
     <t>Hour</t>
   </si>
-  <si>
-    <t>10/2/2018  17:53:49 PM</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +109,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -148,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,9 +192,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,6 +227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,14 +403,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,16 +439,16 @@
         <v>43377</v>
       </c>
       <c r="C2" s="2">
-        <v>43377.41683427084</v>
+        <v>43377.416834270844</v>
       </c>
       <c r="D2" s="2">
-        <v>43377.69714832161</v>
+        <v>43377.697148321611</v>
       </c>
       <c r="E2">
-        <v>54.89</v>
+        <v>6.73</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -435,13 +456,13 @@
         <v>43375</v>
       </c>
       <c r="C3" s="2">
-        <v>43375.41011574074</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+        <v>43375.410115740742</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43375.745706018519</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
   </sheetData>
